--- a/bin/Resoures/InputControl.xlsx
+++ b/bin/Resoures/InputControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052711D3-4446-4A3E-A40C-26067F9F7888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA9111-89F9-4357-9C16-EF17729CC652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>output.xlsx,firstSheet,Title-Description</t>
+  </si>
+  <si>
+    <t>output.xlsx,firstSheet,4-5</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12</t>
   </si>
 </sst>
 </file>
@@ -380,17 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,6 +454,61 @@
       </c>
       <c r="E4">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Resoures/InputControl.xlsx
+++ b/bin/Resoures/InputControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA9111-89F9-4357-9C16-EF17729CC652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9579D72E-CEF5-4D12-9F32-E300A9C1F632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
